--- a/acm-standard-applications/acm-foia/src/main/resources/rules/drools-enter-queue-rules-foia.xlsx
+++ b/acm-standard-applications/acm-foia/src/main/resources/rules/drools-enter-queue-rules-foia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\foia-extension\src\main\resources\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrijana.maneva\.arkcase\acm\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3740D674-D1EC-48FD-89CC-BB50B544A7EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="996"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12030" windowHeight="4980" tabRatio="996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B22" authorId="0" shapeId="0">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -41,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0">
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0">
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>RuleSet</t>
   </si>
@@ -138,9 +139,6 @@
     <t>$model: EnterQueueModel</t>
   </si>
   <si>
-    <t>(((CaseFilePipelineContext)$model.getPipelineContext()).getEnqueueName() != null) &amp;&amp; Arrays.asList("$param".split(",")).contains(((CaseFilePipelineContext)$model.getPipelineContext()).getEnqueueName())</t>
-  </si>
-  <si>
     <t>eval(evalSpring("'$param'.equals(queue?.name)", $model))</t>
   </si>
   <si>
@@ -165,75 +163,9 @@
     <t>Error message</t>
   </si>
   <si>
-    <t>requester name is required</t>
-  </si>
-  <si>
     <t>Fulfill,Approve,General Counsel,Billing,Release</t>
   </si>
   <si>
-    <t>Requester name is required</t>
-  </si>
-  <si>
-    <t>requester street address</t>
-  </si>
-  <si>
-    <t>Requester street address is required</t>
-  </si>
-  <si>
-    <t>requester city</t>
-  </si>
-  <si>
-    <t>Requester city is required</t>
-  </si>
-  <si>
-    <t>requester state</t>
-  </si>
-  <si>
-    <t>Requester state is required</t>
-  </si>
-  <si>
-    <t>requester zip</t>
-  </si>
-  <si>
-    <t>Requester ZIP code is required</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Requester source is required</t>
-  </si>
-  <si>
-    <t>requester org – name</t>
-  </si>
-  <si>
-    <t>Requester organization is required</t>
-  </si>
-  <si>
-    <t>requester organization street address</t>
-  </si>
-  <si>
-    <t>Requester organization street address is required</t>
-  </si>
-  <si>
-    <t>requester organization city</t>
-  </si>
-  <si>
-    <t>Requester organization city is required</t>
-  </si>
-  <si>
-    <t>requester organization state</t>
-  </si>
-  <si>
-    <t>Requester organization state is required</t>
-  </si>
-  <si>
-    <t>requester organization zip</t>
-  </si>
-  <si>
-    <t>Requester organization ZIP code is required</t>
-  </si>
-  <si>
     <t>request type</t>
   </si>
   <si>
@@ -243,24 +175,6 @@
     <t>Request type is required</t>
   </si>
   <si>
-    <t>request sub type</t>
-  </si>
-  <si>
-    <t>requestSubType == null || requestSubType?.trim().isEmpty()</t>
-  </si>
-  <si>
-    <t>Request sub type is required</t>
-  </si>
-  <si>
-    <t>request category</t>
-  </si>
-  <si>
-    <t>requestCategory == null || requestCategory?.trim().isEmpty()</t>
-  </si>
-  <si>
-    <t>Request category is required</t>
-  </si>
-  <si>
     <t>expedite flag</t>
   </si>
   <si>
@@ -288,18 +202,9 @@
     <t>Litigation flag is required</t>
   </si>
   <si>
-    <t>Must be appeal or litigation</t>
-  </si>
-  <si>
     <t>General Counsel</t>
   </si>
   <si>
-    <t>(litigationFlag == null || !litigationFlag) &amp;&amp; (requestType == null || !requestType.equals("Appeal"))</t>
-  </si>
-  <si>
-    <t>The FOIA Request must be an appeal, or the Litigation flag must be checked</t>
-  </si>
-  <si>
     <t>Must not have waived fees</t>
   </si>
   <si>
@@ -312,31 +217,7 @@
     <t>The fee waiver flag must not be checked</t>
   </si>
   <si>
-    <t>Must have paid</t>
-  </si>
-  <si>
     <t>Release</t>
-  </si>
-  <si>
-    <t>paidFlag == null || !paidFlag</t>
-  </si>
-  <si>
-    <t>The paid flag must be checked</t>
-  </si>
-  <si>
-    <t>Must not have paid</t>
-  </si>
-  <si>
-    <t>Hold</t>
-  </si>
-  <si>
-    <t>paidFlag !=null &amp;&amp; paidFlag</t>
-  </si>
-  <si>
-    <t>The paid flag must not be checked</t>
-  </si>
-  <si>
-    <t>personAssociations.?[personType == 'Requester'].isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.familyName == null || personAssociations.?[personType == 'Requester'][0]?.person?.familyName?.trim().isEmpty()</t>
   </si>
   <si>
     <t>com.armedia.acm.plugins.addressable.model.PostalAddress</t>
@@ -357,43 +238,76 @@
 </t>
   </si>
   <si>
-    <t>personAssociations.?[personType == 'Requester'].isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.addresses?.isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.addresses[0]?.zip == null || personAssociations.?[personType == 'Requester'][0]?.person?.addresses[0]?.zip?.trim().isEmpty()</t>
-  </si>
-  <si>
-    <t>personAssociations.?[personType == 'Requester'].isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.addresses?.isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.addresses[0]?.state == null || personAssociations.?[personType == 'Requester'][0]?.person?.addresses[0]?.state?.trim().isEmpty()</t>
-  </si>
-  <si>
-    <t>personAssociations.?[personType == 'Requester'].isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.addresses?.isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.addresses[0]?.city == null || personAssociations.?[personType == 'Requester'][0]?.person?.addresses[0]?.city?.trim().isEmpty()</t>
-  </si>
-  <si>
-    <t>personAssociations.?[personType == 'Requester'].isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.addresses?.isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.addresses[0]?.streetAddress == null || personAssociations.?[personType == 'Requester'][0]?.person?.addresses[0]?.streetAddress?.trim().isEmpty()</t>
-  </si>
-  <si>
-    <t>personAssociations.?[personType == 'Requester'].isEmpty() || personAssociations.?[personType == 'Requester'][0]?.requesterSource == null || personAssociations.?[personType == 'Requester'][0].requesterSource.trim().isEmpty()</t>
-  </si>
-  <si>
-    <t>personAssociations.?[personType == 'Requester'].isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.organizations == null || personAssociations.?[personType == 'Requester'][0]?.person?.organizations?.isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.organizations[0]?.organizationValue == null || personAssociations.?[personType == 'Requester'][0]?.person?.organizations[0]?.organizationValue.trim().isEmpty()</t>
-  </si>
-  <si>
-    <t>personAssociations.?[personType == 'Requester'].isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.organizations == null || personAssociations.?[personType == 'Requester'][0]?.person?.organizations?.isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.organizations[0]?.addresses == null || personAssociations.?[personType == 'Requester'][0]?.person?.organizations[0]?.addresses?.isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.organizations[0]?.addresses[0]?.streetAddress == null || personAssociations.?[personType == 'Requester'][0]?.person?.organizations[0]?.addresses[0]?.streetAddress.trim().isEmpty()</t>
-  </si>
-  <si>
-    <t>personAssociations.?[personType == 'Requester'].isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.organizations == null || personAssociations.?[personType == 'Requester'][0]?.person?.organizations?.isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.organizations[0]?.addresses == null || personAssociations.?[personType == 'Requester'][0]?.person?.organizations[0]?.addresses?.isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.organizations[0]?.addresses[0]?.city == null || personAssociations.?[personType == 'Requester'][0]?.person?.organizations[0]?.addresses[0]?.city.trim().isEmpty()</t>
-  </si>
-  <si>
-    <t>personAssociations.?[personType == 'Requester'].isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.organizations == null || personAssociations.?[personType == 'Requester'][0]?.person?.organizations?.isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.organizations[0]?.addresses == null || personAssociations.?[personType == 'Requester'][0]?.person?.organizations[0]?.addresses?.isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.organizations[0]?.addresses[0]?.state == null || personAssociations.?[personType == 'Requester'][0]?.person?.organizations[0]?.addresses[0]?.state.trim().isEmpty()</t>
-  </si>
-  <si>
-    <t>personAssociations.?[personType == 'Requester'].isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.organizations == null || personAssociations.?[personType == 'Requester'][0]?.person?.organizations?.isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.organizations[0]?.addresses == null || personAssociations.?[personType == 'Requester'][0]?.person?.organizations[0]?.addresses?.isEmpty() || personAssociations.?[personType == 'Requester'][0]?.person?.organizations[0]?.addresses[0]?.zip == null || personAssociations.?[personType == 'Requester'][0]?.person?.organizations[0]?.addresses[0]?.zip.trim().isEmpty()</t>
+    <t>litigationFlag == null || !litigationFlag</t>
+  </si>
+  <si>
+    <t>Must be litigation</t>
+  </si>
+  <si>
+    <t>Litigation flag must be checked</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>Must have disposition type</t>
+  </si>
+  <si>
+    <t>Must have other field (when disposition is full denial and subtype is other)</t>
+  </si>
+  <si>
+    <t>Disposition Type is required</t>
+  </si>
+  <si>
+    <t>Must have disposition subtype (when disposition type is full-denial)</t>
+  </si>
+  <si>
+    <t>Disposition SubType is required</t>
+  </si>
+  <si>
+    <t>Disposition "Other" reason is required</t>
+  </si>
+  <si>
+    <t>disposition == null &amp;&amp; deniedFlag</t>
+  </si>
+  <si>
+    <t>disposition != null &amp;&amp; disposition.equals("full-denial") &amp;&amp; dispositionSubtype == null &amp;&amp; deniedFlag</t>
+  </si>
+  <si>
+    <t>dispositionSubtype == 'other' &amp;&amp; otherReason == null &amp;&amp; deniedFlag</t>
+  </si>
+  <si>
+    <t>Must have set Executive Group</t>
+  </si>
+  <si>
+    <t>notificationGroup == null</t>
+  </si>
+  <si>
+    <t>Executive Group is required</t>
+  </si>
+  <si>
+    <t>(((CaseFilePipelineContext)$model.getPipelineContext()).getEnqueueName() != null) &amp;&amp; ((CaseFilePipelineContext)$model.getPipelineContext()).getEnqueueName().contains("$param")</t>
+  </si>
+  <si>
+    <t>Fulfill</t>
+  </si>
+  <si>
+    <t>Must have received date</t>
+  </si>
+  <si>
+    <t>Intake</t>
+  </si>
+  <si>
+    <t>receivedDate==null</t>
+  </si>
+  <si>
+    <t>Received date is required</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -639,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
@@ -676,9 +590,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,12 +694,18 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5410200</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -819,12 +743,18 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5410200</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -862,12 +792,18 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5410200</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1194,29 +1130,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375"/>
-    <col min="2" max="2" width="39.28515625"/>
-    <col min="3" max="3" width="164.140625"/>
-    <col min="4" max="4" width="78.85546875"/>
-    <col min="5" max="5" width="255.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625"/>
-    <col min="7" max="7" width="35.5703125"/>
-    <col min="8" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="14.7265625"/>
+    <col min="2" max="2" width="39.26953125"/>
+    <col min="3" max="3" width="164.1796875"/>
+    <col min="4" max="4" width="78.81640625"/>
+    <col min="5" max="5" width="255.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875"/>
+    <col min="7" max="7" width="35.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1225,7 +1160,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -1238,7 +1173,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
@@ -1251,7 +1186,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="7" t="s">
@@ -1264,7 +1199,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="7" t="s">
@@ -1277,33 +1212,33 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="7" t="s">
@@ -1316,7 +1251,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7" t="s">
@@ -1329,7 +1264,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="7" t="s">
@@ -1339,7 +1274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="7" t="s">
@@ -1349,7 +1284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="7" t="s">
@@ -1359,7 +1294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="7" t="s">
@@ -1369,7 +1304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C14" s="7" t="s">
         <v>2</v>
       </c>
@@ -1377,18 +1312,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="13" t="s">
@@ -1401,11 +1336,11 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1413,7 +1348,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1427,7 +1362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
@@ -1435,354 +1370,249 @@
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="16"/>
       <c r="C21" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="F21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="D22" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="E22" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="F22" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="21" t="s">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="22" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" t="s">
         <v>30</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23" t="s">
-        <v>86</v>
       </c>
       <c r="F23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="22"/>
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23" t="s">
-        <v>95</v>
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23" t="s">
-        <v>96</v>
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23" t="s">
-        <v>98</v>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23" t="s">
-        <v>99</v>
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" t="s">
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="22"/>
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="22"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" t="s">
         <v>71</v>
-      </c>
-      <c r="E40" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" t="s">
-        <v>75</v>
-      </c>
-      <c r="E42" t="s">
-        <v>80</v>
-      </c>
-      <c r="F42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1794,7 +1624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -1802,10 +1632,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="8.7109375"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1813,7 +1640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -1821,10 +1648,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="8.7109375"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
